--- a/base_dados_frequencia.xlsx
+++ b/base_dados_frequencia.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,6 +1839,140 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>mathbr</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2000-01-01</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>mathbr</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2000-01-02</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>mathbr</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2000-01-03</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mathbr</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2000-01-04</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>mathbr</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2000-01-05</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mathbr</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2000-01-07</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base_dados_frequencia.xlsx
+++ b/base_dados_frequencia.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,390 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Todos os alunos estavam presentes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Todos os alunos estavam presentes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Todos os alunos estavam presentes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>aluno 1000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Todos os alunos estavam presentes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7676887</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>aluno 2000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Todos os alunos estavam presentes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>29129</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>aluno teste</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Todos os alunos estavam presentes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Maré cheia, todos faltaram</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Maré cheia, todos faltaram</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Maré cheia, todos faltaram</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>aluno 1000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Maré cheia, todos faltaram</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7676887</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>aluno 2000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Maré cheia, todos faltaram</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>29129</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aluno teste</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Maré cheia, todos faltaram</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Não há observações</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
